--- a/configs/abaqus_config.xlsx
+++ b/configs/abaqus_config.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>strainStart</t>
   </si>
@@ -81,55 +81,61 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -441,415 +447,395 @@
   <cols>
     <col min="1" max="1" style="14" width="33.29071428571429" customWidth="1" bestFit="1"/>
     <col min="2" max="2" style="15" width="26.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="14" width="17.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="14" width="30.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="14" width="19.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="16" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="16" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="14" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="14" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="14" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="14" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="14" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="14" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="14" max="14" style="14" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="15" max="15" style="14" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="16" max="16" style="14" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="16" width="17.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="17" width="30.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="18" width="19.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="17" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="14" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="17" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="17" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="17" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="17" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="17" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="13" max="13" style="17" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="14" max="14" style="17" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="15" max="15" style="17" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="16" max="16" style="17" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="33" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="5"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="5"/>
+      <c r="O1" s="5"/>
+      <c r="P1" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
       <c r="A2" s="6">
         <v>0</v>
       </c>
       <c r="B2" s="7">
-        <v>0.2</v>
+        <v>3</v>
       </c>
       <c r="C2" s="7">
-        <v>0.0002</v>
+        <v>0.01</v>
       </c>
-      <c r="D2" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>3</v>
-      </c>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
       <c r="F2" s="6"/>
       <c r="G2" s="6"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
-      <c r="K2" s="9"/>
-      <c r="L2" s="9"/>
-      <c r="M2" s="9"/>
-      <c r="N2" s="9"/>
-      <c r="O2" s="9"/>
-      <c r="P2" s="9"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="8"/>
+      <c r="N2" s="8"/>
+      <c r="O2" s="8"/>
+      <c r="P2" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
-      <c r="A3" s="9"/>
-      <c r="B3" s="9"/>
-      <c r="C3" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="9"/>
+      <c r="A3" s="6"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="8"/>
       <c r="E3" s="6"/>
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="10"/>
-      <c r="K3" s="10"/>
-      <c r="L3" s="10"/>
-      <c r="M3" s="10"/>
-      <c r="N3" s="10"/>
-      <c r="O3" s="10"/>
-      <c r="P3" s="10"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="9"/>
+      <c r="M3" s="9"/>
+      <c r="N3" s="9"/>
+      <c r="O3" s="9"/>
+      <c r="P3" s="9"/>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
-      <c r="A4" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="9"/>
-      <c r="D4" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>3</v>
-      </c>
+      <c r="A4" s="6"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
       <c r="F4" s="6"/>
       <c r="G4" s="6"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="10"/>
-      <c r="K4" s="10"/>
-      <c r="L4" s="10"/>
-      <c r="M4" s="10"/>
-      <c r="N4" s="10"/>
-      <c r="O4" s="10"/>
-      <c r="P4" s="10"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="9"/>
+      <c r="N4" s="9"/>
+      <c r="O4" s="9"/>
+      <c r="P4" s="9"/>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
-      <c r="A5" s="9"/>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="8" t="s">
-        <v>3</v>
-      </c>
+      <c r="A5" s="6"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
       <c r="F5" s="6"/>
       <c r="G5" s="6"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
-      <c r="J5" s="10"/>
-      <c r="K5" s="10"/>
-      <c r="L5" s="10"/>
-      <c r="M5" s="10"/>
-      <c r="N5" s="10"/>
-      <c r="O5" s="10"/>
-      <c r="P5" s="10"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="9"/>
+      <c r="L5" s="9"/>
+      <c r="M5" s="9"/>
+      <c r="N5" s="9"/>
+      <c r="O5" s="9"/>
+      <c r="P5" s="9"/>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
-      <c r="A6" s="9"/>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
+      <c r="A6" s="6"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="8"/>
       <c r="E6" s="6"/>
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="10"/>
-      <c r="K6" s="10"/>
-      <c r="L6" s="10"/>
-      <c r="M6" s="10"/>
-      <c r="N6" s="10"/>
-      <c r="O6" s="10"/>
-      <c r="P6" s="10"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="9"/>
+      <c r="M6" s="9"/>
+      <c r="N6" s="9"/>
+      <c r="O6" s="9"/>
+      <c r="P6" s="9"/>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
-      <c r="A7" s="9"/>
-      <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
+      <c r="A7" s="6"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="8"/>
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
       <c r="G7" s="6"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="10"/>
-      <c r="J7" s="10"/>
-      <c r="K7" s="10"/>
-      <c r="L7" s="10"/>
-      <c r="M7" s="10"/>
-      <c r="N7" s="10"/>
-      <c r="O7" s="10"/>
-      <c r="P7" s="10"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="9"/>
+      <c r="M7" s="9"/>
+      <c r="N7" s="9"/>
+      <c r="O7" s="9"/>
+      <c r="P7" s="9"/>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
-      <c r="A8" s="9"/>
+      <c r="A8" s="6"/>
       <c r="B8" s="6"/>
       <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
+      <c r="D8" s="9"/>
       <c r="E8" s="11"/>
       <c r="F8" s="12"/>
       <c r="G8" s="12"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10"/>
-      <c r="J8" s="10"/>
-      <c r="K8" s="10"/>
-      <c r="L8" s="10"/>
-      <c r="M8" s="10"/>
-      <c r="N8" s="10"/>
-      <c r="O8" s="10"/>
-      <c r="P8" s="10"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
+      <c r="L8" s="9"/>
+      <c r="M8" s="9"/>
+      <c r="N8" s="9"/>
+      <c r="O8" s="9"/>
+      <c r="P8" s="9"/>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
       <c r="A9" s="7"/>
       <c r="B9" s="7"/>
       <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
+      <c r="D9" s="9"/>
       <c r="E9" s="11"/>
       <c r="F9" s="12"/>
       <c r="G9" s="12"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="10"/>
-      <c r="J9" s="10"/>
-      <c r="K9" s="10"/>
-      <c r="L9" s="10"/>
-      <c r="M9" s="10"/>
-      <c r="N9" s="10"/>
-      <c r="O9" s="10"/>
-      <c r="P9" s="10"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+      <c r="L9" s="9"/>
+      <c r="M9" s="9"/>
+      <c r="N9" s="9"/>
+      <c r="O9" s="9"/>
+      <c r="P9" s="9"/>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
       <c r="A10" s="7"/>
       <c r="B10" s="7"/>
       <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
+      <c r="D10" s="9"/>
       <c r="E10" s="11"/>
       <c r="F10" s="12"/>
       <c r="G10" s="12"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="10"/>
-      <c r="J10" s="10"/>
-      <c r="K10" s="10"/>
-      <c r="L10" s="10"/>
-      <c r="M10" s="10"/>
-      <c r="N10" s="10"/>
-      <c r="O10" s="10"/>
-      <c r="P10" s="10"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="9"/>
+      <c r="M10" s="9"/>
+      <c r="N10" s="9"/>
+      <c r="O10" s="9"/>
+      <c r="P10" s="9"/>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
       <c r="A11" s="7"/>
       <c r="B11" s="7"/>
       <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
+      <c r="D11" s="9"/>
       <c r="E11" s="11"/>
       <c r="F11" s="12"/>
       <c r="G11" s="12"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="10"/>
-      <c r="K11" s="10"/>
-      <c r="L11" s="10"/>
-      <c r="M11" s="10"/>
-      <c r="N11" s="10"/>
-      <c r="O11" s="10"/>
-      <c r="P11" s="10"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
+      <c r="L11" s="9"/>
+      <c r="M11" s="9"/>
+      <c r="N11" s="9"/>
+      <c r="O11" s="9"/>
+      <c r="P11" s="9"/>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
       <c r="A12" s="7"/>
       <c r="B12" s="7"/>
       <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
+      <c r="D12" s="9"/>
       <c r="E12" s="11"/>
       <c r="F12" s="12"/>
       <c r="G12" s="12"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="10"/>
-      <c r="K12" s="10"/>
-      <c r="L12" s="10"/>
-      <c r="M12" s="10"/>
-      <c r="N12" s="10"/>
-      <c r="O12" s="10"/>
-      <c r="P12" s="10"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+      <c r="L12" s="9"/>
+      <c r="M12" s="9"/>
+      <c r="N12" s="9"/>
+      <c r="O12" s="9"/>
+      <c r="P12" s="9"/>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
-      <c r="A13" s="9"/>
+      <c r="A13" s="6"/>
       <c r="B13" s="6"/>
       <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
+      <c r="D13" s="9"/>
       <c r="E13" s="11"/>
       <c r="F13" s="12"/>
       <c r="G13" s="12"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="10"/>
-      <c r="K13" s="10"/>
-      <c r="L13" s="10"/>
-      <c r="M13" s="10"/>
-      <c r="N13" s="10"/>
-      <c r="O13" s="10"/>
-      <c r="P13" s="10"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c r="L13" s="9"/>
+      <c r="M13" s="9"/>
+      <c r="N13" s="9"/>
+      <c r="O13" s="9"/>
+      <c r="P13" s="9"/>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
-      <c r="A14" s="9"/>
+      <c r="A14" s="6"/>
       <c r="B14" s="6"/>
       <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
+      <c r="D14" s="9"/>
       <c r="E14" s="11"/>
       <c r="F14" s="12"/>
       <c r="G14" s="12"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="10"/>
-      <c r="K14" s="10"/>
-      <c r="L14" s="10"/>
-      <c r="M14" s="10"/>
-      <c r="N14" s="10"/>
-      <c r="O14" s="10"/>
-      <c r="P14" s="10"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+      <c r="L14" s="9"/>
+      <c r="M14" s="9"/>
+      <c r="N14" s="9"/>
+      <c r="O14" s="9"/>
+      <c r="P14" s="9"/>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
-      <c r="A15" s="9"/>
+      <c r="A15" s="6"/>
       <c r="B15" s="6"/>
       <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
+      <c r="D15" s="9"/>
       <c r="E15" s="11"/>
       <c r="F15" s="12"/>
       <c r="G15" s="12"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="10"/>
-      <c r="J15" s="10"/>
-      <c r="K15" s="10"/>
-      <c r="L15" s="10"/>
-      <c r="M15" s="10"/>
-      <c r="N15" s="10"/>
-      <c r="O15" s="10"/>
-      <c r="P15" s="10"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
+      <c r="L15" s="9"/>
+      <c r="M15" s="9"/>
+      <c r="N15" s="9"/>
+      <c r="O15" s="9"/>
+      <c r="P15" s="9"/>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
-      <c r="A16" s="9"/>
+      <c r="A16" s="6"/>
       <c r="B16" s="6"/>
       <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
+      <c r="D16" s="9"/>
       <c r="E16" s="11"/>
       <c r="F16" s="12"/>
       <c r="G16" s="12"/>
-      <c r="H16" s="10"/>
-      <c r="I16" s="10"/>
-      <c r="J16" s="10"/>
-      <c r="K16" s="10"/>
-      <c r="L16" s="10"/>
-      <c r="M16" s="10"/>
-      <c r="N16" s="10"/>
-      <c r="O16" s="10"/>
-      <c r="P16" s="10"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
+      <c r="L16" s="9"/>
+      <c r="M16" s="9"/>
+      <c r="N16" s="9"/>
+      <c r="O16" s="9"/>
+      <c r="P16" s="9"/>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
       <c r="A17" s="6"/>
       <c r="B17" s="6"/>
       <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
+      <c r="D17" s="9"/>
       <c r="E17" s="11"/>
       <c r="F17" s="12"/>
       <c r="G17" s="12"/>
-      <c r="H17" s="10"/>
-      <c r="I17" s="10"/>
-      <c r="J17" s="10"/>
-      <c r="K17" s="10"/>
-      <c r="L17" s="10"/>
-      <c r="M17" s="10"/>
-      <c r="N17" s="10"/>
-      <c r="O17" s="10"/>
-      <c r="P17" s="10"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="9"/>
+      <c r="L17" s="9"/>
+      <c r="M17" s="9"/>
+      <c r="N17" s="9"/>
+      <c r="O17" s="9"/>
+      <c r="P17" s="9"/>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
-      <c r="A18" s="9"/>
+      <c r="A18" s="6"/>
       <c r="B18" s="6"/>
       <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
+      <c r="D18" s="9"/>
       <c r="E18" s="11"/>
       <c r="F18" s="12"/>
       <c r="G18" s="12"/>
-      <c r="H18" s="10"/>
-      <c r="I18" s="10"/>
-      <c r="J18" s="10"/>
-      <c r="K18" s="10"/>
-      <c r="L18" s="10"/>
-      <c r="M18" s="10"/>
-      <c r="N18" s="10"/>
-      <c r="O18" s="10"/>
-      <c r="P18" s="10"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
+      <c r="L18" s="9"/>
+      <c r="M18" s="9"/>
+      <c r="N18" s="9"/>
+      <c r="O18" s="9"/>
+      <c r="P18" s="9"/>
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5">
       <c r="A19" s="6"/>
       <c r="B19" s="6"/>
       <c r="C19" s="10"/>
-      <c r="D19" s="10"/>
+      <c r="D19" s="9"/>
       <c r="E19" s="11"/>
       <c r="F19" s="12"/>
       <c r="G19" s="12"/>
-      <c r="H19" s="10"/>
-      <c r="I19" s="10"/>
-      <c r="J19" s="10"/>
-      <c r="K19" s="10"/>
-      <c r="L19" s="10"/>
-      <c r="M19" s="10"/>
-      <c r="N19" s="10"/>
-      <c r="O19" s="10"/>
-      <c r="P19" s="10"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="9"/>
+      <c r="L19" s="9"/>
+      <c r="M19" s="9"/>
+      <c r="N19" s="9"/>
+      <c r="O19" s="9"/>
+      <c r="P19" s="9"/>
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="19.5">
-      <c r="A20" s="10"/>
-      <c r="B20" s="13"/>
+      <c r="A20" s="13"/>
+      <c r="B20" s="11"/>
       <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
+      <c r="D20" s="9"/>
       <c r="E20" s="11"/>
       <c r="F20" s="12"/>
       <c r="G20" s="12"/>
-      <c r="H20" s="10"/>
-      <c r="I20" s="10"/>
-      <c r="J20" s="10"/>
-      <c r="K20" s="10"/>
-      <c r="L20" s="10"/>
-      <c r="M20" s="10"/>
-      <c r="N20" s="10"/>
-      <c r="O20" s="10"/>
-      <c r="P20" s="10"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="9"/>
+      <c r="L20" s="9"/>
+      <c r="M20" s="9"/>
+      <c r="N20" s="9"/>
+      <c r="O20" s="9"/>
+      <c r="P20" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/configs/abaqus_config.xlsx
+++ b/configs/abaqus_config.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>strainStart</t>
   </si>
@@ -23,9 +23,6 @@
   </si>
   <si>
     <t>strainStep</t>
-  </si>
-  <si>
-    <t/>
   </si>
 </sst>
 </file>
@@ -81,7 +78,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -92,9 +89,6 @@
     <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -110,31 +104,31 @@
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -445,22 +439,22 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="14" width="33.29071428571429" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="15" width="26.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="16" width="17.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="17" width="30.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="18" width="19.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="17" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="14" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="17" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="17" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="17" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="17" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="17" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="17" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="14" max="14" style="17" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="15" max="15" style="17" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="16" max="16" style="17" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="12" width="33.29071428571429" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="13" width="26.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="14" width="17.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="15" width="30.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="16" width="19.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="16" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="17" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="15" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="15" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="15" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="15" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="15" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="13" max="13" style="15" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="14" max="14" style="15" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="15" max="15" style="15" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="16" max="16" style="15" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5" customFormat="1" s="1">
@@ -473,369 +467,385 @@
       <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4"/>
+      <c r="O1" s="4"/>
+      <c r="P1" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
+      <c r="A2" s="5">
+        <v>0</v>
+      </c>
+      <c r="B2" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="C2" s="6">
+        <v>0.005</v>
+      </c>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="7"/>
+      <c r="P2" s="7"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
+      <c r="A3" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="B3" s="6">
+        <v>1.7</v>
+      </c>
+      <c r="C3" s="6">
+        <v>0.01</v>
+      </c>
+      <c r="D3" s="7"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="8"/>
+      <c r="N3" s="8"/>
+      <c r="O3" s="8"/>
+      <c r="P3" s="8"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
+      <c r="A4" s="5">
+        <v>1.7</v>
+      </c>
+      <c r="B4" s="6">
+        <v>2</v>
+      </c>
+      <c r="C4" s="6">
+        <v>0.02</v>
+      </c>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="8"/>
+      <c r="N4" s="8"/>
+      <c r="O4" s="8"/>
+      <c r="P4" s="8"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
+      <c r="A5" s="5">
+        <v>2</v>
+      </c>
+      <c r="B5" s="6">
         <v>3</v>
       </c>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
-      <c r="O1" s="5"/>
-      <c r="P1" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
-      <c r="A2" s="6">
-        <v>0</v>
-      </c>
-      <c r="B2" s="7">
-        <v>3</v>
-      </c>
-      <c r="C2" s="7">
-        <v>0.01</v>
-      </c>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
-      <c r="L2" s="8"/>
-      <c r="M2" s="8"/>
-      <c r="N2" s="8"/>
-      <c r="O2" s="8"/>
-      <c r="P2" s="8"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
-      <c r="A3" s="6"/>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9"/>
-      <c r="K3" s="9"/>
-      <c r="L3" s="9"/>
-      <c r="M3" s="9"/>
-      <c r="N3" s="9"/>
-      <c r="O3" s="9"/>
-      <c r="P3" s="9"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
-      <c r="A4" s="6"/>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="9"/>
-      <c r="L4" s="9"/>
-      <c r="M4" s="9"/>
-      <c r="N4" s="9"/>
-      <c r="O4" s="9"/>
-      <c r="P4" s="9"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
-      <c r="A5" s="6"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
-      <c r="K5" s="9"/>
-      <c r="L5" s="9"/>
-      <c r="M5" s="9"/>
-      <c r="N5" s="9"/>
-      <c r="O5" s="9"/>
-      <c r="P5" s="9"/>
+      <c r="C5" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="8"/>
+      <c r="M5" s="8"/>
+      <c r="N5" s="8"/>
+      <c r="O5" s="8"/>
+      <c r="P5" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
-      <c r="A6" s="6"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="9"/>
-      <c r="L6" s="9"/>
-      <c r="M6" s="9"/>
-      <c r="N6" s="9"/>
-      <c r="O6" s="9"/>
-      <c r="P6" s="9"/>
+      <c r="A6" s="5"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="8"/>
+      <c r="N6" s="8"/>
+      <c r="O6" s="8"/>
+      <c r="P6" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
-      <c r="A7" s="6"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="9"/>
-      <c r="K7" s="9"/>
-      <c r="L7" s="9"/>
-      <c r="M7" s="9"/>
-      <c r="N7" s="9"/>
-      <c r="O7" s="9"/>
-      <c r="P7" s="9"/>
+      <c r="A7" s="5"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="8"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="8"/>
+      <c r="P7" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
-      <c r="A8" s="6"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="9"/>
-      <c r="K8" s="9"/>
-      <c r="L8" s="9"/>
-      <c r="M8" s="9"/>
-      <c r="N8" s="9"/>
-      <c r="O8" s="9"/>
-      <c r="P8" s="9"/>
+      <c r="A8" s="5"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="8"/>
+      <c r="M8" s="8"/>
+      <c r="N8" s="8"/>
+      <c r="O8" s="8"/>
+      <c r="P8" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
-      <c r="A9" s="7"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="9"/>
-      <c r="K9" s="9"/>
-      <c r="L9" s="9"/>
-      <c r="M9" s="9"/>
-      <c r="N9" s="9"/>
-      <c r="O9" s="9"/>
-      <c r="P9" s="9"/>
+      <c r="A9" s="6"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="8"/>
+      <c r="M9" s="8"/>
+      <c r="N9" s="8"/>
+      <c r="O9" s="8"/>
+      <c r="P9" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
-      <c r="A10" s="7"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="9"/>
-      <c r="J10" s="9"/>
-      <c r="K10" s="9"/>
-      <c r="L10" s="9"/>
-      <c r="M10" s="9"/>
-      <c r="N10" s="9"/>
-      <c r="O10" s="9"/>
-      <c r="P10" s="9"/>
+      <c r="A10" s="6"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="8"/>
+      <c r="M10" s="8"/>
+      <c r="N10" s="8"/>
+      <c r="O10" s="8"/>
+      <c r="P10" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
-      <c r="A11" s="7"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="9"/>
-      <c r="J11" s="9"/>
-      <c r="K11" s="9"/>
-      <c r="L11" s="9"/>
-      <c r="M11" s="9"/>
-      <c r="N11" s="9"/>
-      <c r="O11" s="9"/>
-      <c r="P11" s="9"/>
+      <c r="A11" s="6"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="8"/>
+      <c r="M11" s="8"/>
+      <c r="N11" s="8"/>
+      <c r="O11" s="8"/>
+      <c r="P11" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
-      <c r="A12" s="7"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="9"/>
-      <c r="J12" s="9"/>
-      <c r="K12" s="9"/>
-      <c r="L12" s="9"/>
-      <c r="M12" s="9"/>
-      <c r="N12" s="9"/>
-      <c r="O12" s="9"/>
-      <c r="P12" s="9"/>
+      <c r="A12" s="6"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="8"/>
+      <c r="M12" s="8"/>
+      <c r="N12" s="8"/>
+      <c r="O12" s="8"/>
+      <c r="P12" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
-      <c r="A13" s="6"/>
-      <c r="B13" s="6"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="9"/>
-      <c r="I13" s="9"/>
-      <c r="J13" s="9"/>
-      <c r="K13" s="9"/>
-      <c r="L13" s="9"/>
-      <c r="M13" s="9"/>
-      <c r="N13" s="9"/>
-      <c r="O13" s="9"/>
-      <c r="P13" s="9"/>
+      <c r="A13" s="5"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="8"/>
+      <c r="M13" s="8"/>
+      <c r="N13" s="8"/>
+      <c r="O13" s="8"/>
+      <c r="P13" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
-      <c r="A14" s="6"/>
-      <c r="B14" s="6"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="9"/>
-      <c r="J14" s="9"/>
-      <c r="K14" s="9"/>
-      <c r="L14" s="9"/>
-      <c r="M14" s="9"/>
-      <c r="N14" s="9"/>
-      <c r="O14" s="9"/>
-      <c r="P14" s="9"/>
+      <c r="A14" s="5"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="8"/>
+      <c r="M14" s="8"/>
+      <c r="N14" s="8"/>
+      <c r="O14" s="8"/>
+      <c r="P14" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
-      <c r="A15" s="6"/>
-      <c r="B15" s="6"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="9"/>
-      <c r="J15" s="9"/>
-      <c r="K15" s="9"/>
-      <c r="L15" s="9"/>
-      <c r="M15" s="9"/>
-      <c r="N15" s="9"/>
-      <c r="O15" s="9"/>
-      <c r="P15" s="9"/>
+      <c r="A15" s="5"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="8"/>
+      <c r="L15" s="8"/>
+      <c r="M15" s="8"/>
+      <c r="N15" s="8"/>
+      <c r="O15" s="8"/>
+      <c r="P15" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
-      <c r="A16" s="6"/>
-      <c r="B16" s="6"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="12"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="9"/>
-      <c r="J16" s="9"/>
-      <c r="K16" s="9"/>
-      <c r="L16" s="9"/>
-      <c r="M16" s="9"/>
-      <c r="N16" s="9"/>
-      <c r="O16" s="9"/>
-      <c r="P16" s="9"/>
+      <c r="A16" s="5"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="8"/>
+      <c r="L16" s="8"/>
+      <c r="M16" s="8"/>
+      <c r="N16" s="8"/>
+      <c r="O16" s="8"/>
+      <c r="P16" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
-      <c r="A17" s="6"/>
-      <c r="B17" s="6"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="12"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="9"/>
-      <c r="J17" s="9"/>
-      <c r="K17" s="9"/>
-      <c r="L17" s="9"/>
-      <c r="M17" s="9"/>
-      <c r="N17" s="9"/>
-      <c r="O17" s="9"/>
-      <c r="P17" s="9"/>
+      <c r="A17" s="5"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="8"/>
+      <c r="K17" s="8"/>
+      <c r="L17" s="8"/>
+      <c r="M17" s="8"/>
+      <c r="N17" s="8"/>
+      <c r="O17" s="8"/>
+      <c r="P17" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
-      <c r="A18" s="6"/>
-      <c r="B18" s="6"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="12"/>
-      <c r="G18" s="12"/>
-      <c r="H18" s="9"/>
-      <c r="I18" s="9"/>
-      <c r="J18" s="9"/>
-      <c r="K18" s="9"/>
-      <c r="L18" s="9"/>
-      <c r="M18" s="9"/>
-      <c r="N18" s="9"/>
-      <c r="O18" s="9"/>
-      <c r="P18" s="9"/>
+      <c r="A18" s="5"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="8"/>
+      <c r="K18" s="8"/>
+      <c r="L18" s="8"/>
+      <c r="M18" s="8"/>
+      <c r="N18" s="8"/>
+      <c r="O18" s="8"/>
+      <c r="P18" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5">
-      <c r="A19" s="6"/>
-      <c r="B19" s="6"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="12"/>
-      <c r="G19" s="12"/>
-      <c r="H19" s="9"/>
-      <c r="I19" s="9"/>
-      <c r="J19" s="9"/>
-      <c r="K19" s="9"/>
-      <c r="L19" s="9"/>
-      <c r="M19" s="9"/>
-      <c r="N19" s="9"/>
-      <c r="O19" s="9"/>
-      <c r="P19" s="9"/>
+      <c r="A19" s="5"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="8"/>
+      <c r="K19" s="8"/>
+      <c r="L19" s="8"/>
+      <c r="M19" s="8"/>
+      <c r="N19" s="8"/>
+      <c r="O19" s="8"/>
+      <c r="P19" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="19.5">
-      <c r="A20" s="13"/>
-      <c r="B20" s="11"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="12"/>
-      <c r="G20" s="12"/>
-      <c r="H20" s="9"/>
-      <c r="I20" s="9"/>
-      <c r="J20" s="9"/>
-      <c r="K20" s="9"/>
-      <c r="L20" s="9"/>
-      <c r="M20" s="9"/>
-      <c r="N20" s="9"/>
-      <c r="O20" s="9"/>
-      <c r="P20" s="9"/>
+      <c r="A20" s="11"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="8"/>
+      <c r="K20" s="8"/>
+      <c r="L20" s="8"/>
+      <c r="M20" s="8"/>
+      <c r="N20" s="8"/>
+      <c r="O20" s="8"/>
+      <c r="P20" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
